--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>Keller</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>Hier die verlatung dazurechnen</t>
+  </si>
+  <si>
+    <t>Handkreissäge</t>
+  </si>
+  <si>
+    <t>Gummihammer</t>
+  </si>
+  <si>
+    <t>Alulatte</t>
   </si>
 </sst>
 </file>
@@ -665,11 +674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,14 +1055,29 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="1" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D78" s="4">
         <f>SUM(D2:D61)</f>
         <v>10</v>
       </c>
@@ -1068,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>Keller</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Menge</t>
   </si>
   <si>
-    <t>Preis</t>
-  </si>
-  <si>
     <t>Grill</t>
   </si>
   <si>
@@ -319,16 +316,25 @@
   </si>
   <si>
     <t>Alulatte</t>
+  </si>
+  <si>
+    <t>Maße/Ergibigkeit</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Infos/Tipps/Tricks</t>
+  </si>
+  <si>
+    <t>Wiedmann Öffnzeiten / Tel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +346,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -362,8 +376,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -372,9 +387,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,12 +702,13 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -699,272 +716,280 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
       <c r="C44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,119 +997,119 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
         <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="4">
-        <f>SUM(D2:D61)</f>
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1100,21 +1125,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,12 +1189,12 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,7 +1208,7 @@
         <v>1.98</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,7 +1222,7 @@
         <v>1.98</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1222,23 +1247,23 @@
         <v>3.5</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>0.1</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1257,18 +1282,18 @@
         <v>2.8</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1279,7 +1304,7 @@
         <v>1.98</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1292,16 +1317,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>0.08</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1312,13 +1337,13 @@
         <v>3.5</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23">
         <v>3.3</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1329,18 +1354,18 @@
         <v>2.8</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24">
         <v>3.5</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,7 +1378,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>Keller</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Türe?</t>
   </si>
   <si>
-    <t>15-20 qm</t>
-  </si>
-  <si>
     <t>Fenster</t>
   </si>
   <si>
@@ -328,6 +325,33 @@
   </si>
   <si>
     <t>Wiedmann Öffnzeiten / Tel</t>
+  </si>
+  <si>
+    <t>Dichtschlämme</t>
+  </si>
+  <si>
+    <t>ca. 38 qm</t>
+  </si>
+  <si>
+    <t>2-4 Matten á Grundfl.</t>
+  </si>
+  <si>
+    <t>Wände</t>
+  </si>
+  <si>
+    <t>allgemein</t>
+  </si>
+  <si>
+    <t>ca 20m?</t>
+  </si>
+  <si>
+    <t>boden/decke 20qm?</t>
+  </si>
+  <si>
+    <t>20-25 qm</t>
+  </si>
+  <si>
+    <t>RÜTTLER</t>
   </si>
 </sst>
 </file>
@@ -690,18 +714,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="50.85546875" customWidth="1"/>
   </cols>
@@ -717,10 +741,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,7 +770,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,353 +778,387 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>17</v>
       </c>
-      <c r="C44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="1" t="s">
-        <v>27</v>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1125,21 +1183,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,12 +1247,12 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1208,7 +1266,7 @@
         <v>1.98</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1222,7 +1280,7 @@
         <v>1.98</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,23 +1305,23 @@
         <v>3.5</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16">
         <v>0.1</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,18 +1340,18 @@
         <v>2.8</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1304,7 +1362,7 @@
         <v>1.98</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1317,16 +1375,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <v>0.08</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1337,13 +1395,13 @@
         <v>3.5</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23">
         <v>3.3</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1354,18 +1412,18 @@
         <v>2.8</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24">
         <v>3.5</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1378,7 +1436,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
   <si>
     <t>Keller</t>
   </si>
@@ -352,6 +352,15 @@
   </si>
   <si>
     <t>RÜTTLER</t>
+  </si>
+  <si>
+    <t>Bauexpertenforum</t>
+  </si>
+  <si>
+    <t>bau.net forum beton/zement rechnung</t>
+  </si>
+  <si>
+    <t>4:1 kies:zement</t>
   </si>
 </sst>
 </file>
@@ -717,8 +726,8 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,11 +800,17 @@
       <c r="C11" t="s">
         <v>110</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -808,6 +823,9 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,9 +1183,11 @@
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1"/>
     <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>Keller</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>4:1 kies:zement</t>
+  </si>
+  <si>
+    <t>Fertig Beton ca. 100€ m³  mindermenge bis 4m³</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,6 +834,9 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
   <si>
     <t>Keller</t>
   </si>
@@ -360,10 +360,19 @@
     <t>bau.net forum beton/zement rechnung</t>
   </si>
   <si>
-    <t>4:1 kies:zement</t>
-  </si>
-  <si>
     <t>Fertig Beton ca. 100€ m³  mindermenge bis 4m³</t>
+  </si>
+  <si>
+    <t>4:1 kies:zement  300-400kg zement/m³</t>
+  </si>
+  <si>
+    <t>4 m³ x 2 = ca.  2,4t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca 2t/m³ </t>
+  </si>
+  <si>
+    <t>16t</t>
   </si>
 </sst>
 </file>
@@ -730,7 +739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,21 +836,30 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
     <t>Keller</t>
   </si>
@@ -366,20 +366,51 @@
     <t>4:1 kies:zement  300-400kg zement/m³</t>
   </si>
   <si>
-    <t>4 m³ x 2 = ca.  2,4t</t>
-  </si>
-  <si>
     <t xml:space="preserve">ca 2t/m³ </t>
   </si>
   <si>
     <t>16t</t>
+  </si>
+  <si>
+    <t>ca.  2,4t = 96 Sack</t>
+  </si>
+  <si>
+    <t>4 m³ x 2 = 8 m³</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">96 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 = 288€</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +430,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -735,23 +773,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -762,47 +801,50 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -812,19 +854,19 @@
       <c r="C11" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -832,33 +874,39 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
       </c>
       <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>114</v>
       </c>
     </row>
@@ -930,7 +978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -938,23 +986,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>15</v>
       </c>
@@ -962,50 +1010,51 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>56</v>
       </c>
@@ -1178,37 +1227,38 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D86" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E11" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId3"/>
+    <hyperlink ref="F12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>

--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -102,9 +102,6 @@
     <t>1 bis 2 sack</t>
   </si>
   <si>
-    <t>Kies(Beton)</t>
-  </si>
-  <si>
     <t>Kies(Rollierung)</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
   </si>
   <si>
     <t xml:space="preserve">ca 2t/m³ </t>
-  </si>
-  <si>
-    <t>16t</t>
   </si>
   <si>
     <t>ca.  2,4t = 96 Sack</t>
@@ -405,11 +399,20 @@
       <t>3 = 288€</t>
     </r>
   </si>
+  <si>
+    <t>Kies(Beton) 0/16(körnung)</t>
+  </si>
+  <si>
+    <t>16t á 19,50€</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -471,6 +474,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -801,13 +805,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
         <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,7 +837,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,29 +845,29 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,48 +883,51 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="D15" s="5">
+        <v>312</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -931,28 +938,28 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
         <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -960,36 +967,36 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,7 +1034,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,22 +1053,22 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,58 +1089,58 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
         <v>44</v>
-      </c>
-      <c r="B54" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,110 +1148,110 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
         <v>52</v>
-      </c>
-      <c r="B64" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
@@ -1277,21 +1284,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,12 +1348,12 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1360,7 +1367,7 @@
         <v>1.98</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1374,7 +1381,7 @@
         <v>1.98</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1399,23 +1406,23 @@
         <v>3.5</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>0.1</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1434,18 +1441,18 @@
         <v>2.8</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,7 +1463,7 @@
         <v>1.98</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,16 +1476,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22">
         <v>0.08</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,13 +1496,13 @@
         <v>3.5</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23">
         <v>3.3</v>
       </c>
       <c r="G23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,18 +1513,18 @@
         <v>2.8</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24">
         <v>3.5</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1530,7 +1537,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
   <si>
     <t>Keller</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Luke</t>
   </si>
   <si>
-    <t>Schaufel</t>
-  </si>
-  <si>
     <t>Kettensäge</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>20-25 qm</t>
   </si>
   <si>
-    <t>RÜTTLER</t>
-  </si>
-  <si>
     <t>Bauexpertenforum</t>
   </si>
   <si>
@@ -367,9 +361,6 @@
   </si>
   <si>
     <t>ca.  2,4t = 96 Sack</t>
-  </si>
-  <si>
-    <t>4 m³ x 2 = 8 m³</t>
   </si>
   <si>
     <t>Kosten</t>
@@ -405,6 +396,44 @@
   <si>
     <t>16t á 19,50€</t>
   </si>
+  <si>
+    <t>RÜTTLER(leihen)</t>
+  </si>
+  <si>
+    <t>Deckenstirn Isolation</t>
+  </si>
+  <si>
+    <t>Holz Balken Sitzbereich</t>
+  </si>
+  <si>
+    <t>1985 x 1985 mm</t>
+  </si>
+  <si>
+    <t>Reibebrett</t>
+  </si>
+  <si>
+    <t>Schaufeln</t>
+  </si>
+  <si>
+    <t>Kellen/Spachtel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 m³ x 2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8 m³</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -413,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +468,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -777,11 +815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,13 +843,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
         <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -837,7 +875,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,21 +883,21 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,7 +905,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,30 +921,30 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
         <v>116</v>
       </c>
-      <c r="D14" t="s">
-        <v>119</v>
-      </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D15" s="5">
         <v>312</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,7 +952,7 @@
         <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -922,15 +960,18 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,15 +979,15 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
         <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,12 +995,12 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -970,6 +1011,11 @@
         <v>38</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>62</v>
@@ -985,7 +1031,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -993,272 +1044,286 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
       <c r="B37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>17</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="1" t="s">
+      <c r="B86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D89" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1284,21 +1349,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,12 +1413,12 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1367,7 +1432,7 @@
         <v>1.98</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1381,7 +1446,7 @@
         <v>1.98</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,23 +1471,23 @@
         <v>3.5</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>0.1</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1441,18 +1506,18 @@
         <v>2.8</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1463,7 +1528,7 @@
         <v>1.98</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1476,16 +1541,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>0.08</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,13 +1561,13 @@
         <v>3.5</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23">
         <v>3.3</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1513,18 +1578,18 @@
         <v>2.8</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <v>3.5</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,7 +1602,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="128">
   <si>
     <t>Keller</t>
   </si>
@@ -433,6 +433,9 @@
       </rPr>
       <t>8 m³</t>
     </r>
+  </si>
+  <si>
+    <t>GrundMauer für Hütte</t>
   </si>
 </sst>
 </file>
@@ -815,11 +818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +946,7 @@
       <c r="D15" s="5">
         <v>312</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1131,199 +1134,204 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>27</v>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A65" s="1"/>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>119</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="1" t="s">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D92" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Baumaterial.xlsx
+++ b/Baumaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <t>Keller</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>GrundMauer für Hütte</t>
+  </si>
+  <si>
+    <t>Fertig beton mit Fasern dann sparen wir uns die matten</t>
+  </si>
+  <si>
+    <t>und die hangbefestigung am zaun können wir auch gleich voll laufen lassen…</t>
   </si>
 </sst>
 </file>
@@ -822,7 +828,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,15 +964,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -977,7 +991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -985,7 +999,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>101</v>
       </c>
@@ -993,7 +1007,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1015,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -1009,32 +1023,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>120</v>
       </c>
